--- a/service-student/src/main/resources/templates/付款申请统计模板.xlsx
+++ b/service-student/src/main/resources/templates/付款申请统计模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>导出人：苏冬雪</t>
   </si>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.payProcess</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.settleProcess}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{preparePay}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,6 +266,26 @@
   </si>
   <si>
     <t>{{$fe:payReportVendorItemVos t.venAbbName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.settleProcess}}%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.payProcess %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{mainMap0}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{mainMap1}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{mainMap2}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -787,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
@@ -818,7 +830,7 @@
     </row>
     <row r="5" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
@@ -866,92 +878,103 @@
         <v>40</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
